--- a/examples/template.xlsx
+++ b/examples/template.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Details Design" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Project Details" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">{% img flowsImage %}</t>
   </si>
@@ -44,6 +45,12 @@
   </si>
   <si>
     <t xml:space="preserve">{% endfor %}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{projectName}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{author}}</t>
   </si>
 </sst>
 </file>
@@ -208,9 +215,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>664200</xdr:colOff>
+      <xdr:colOff>663840</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>150840</xdr:rowOff>
+      <xdr:rowOff>150480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -224,7 +231,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6300360" y="0"/>
-          <a:ext cx="1477080" cy="1476720"/>
+          <a:ext cx="1476720" cy="1476360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -245,9 +252,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>849240</xdr:colOff>
+      <xdr:colOff>848880</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>155160</xdr:rowOff>
+      <xdr:rowOff>154800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -261,7 +268,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="360"/>
-          <a:ext cx="2475000" cy="2455920"/>
+          <a:ext cx="2474640" cy="2455560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -283,7 +290,7 @@
   </sheetPr>
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -437,4 +444,38 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>